--- a/comments.xlsx
+++ b/comments.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -729,68 +729,54 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>중공 사고치고 전세계가 뒤치닥거리 하고있네</t>
+          <t>빨리좀개발해라.....그것도싸게개발해서. 좀버습해줘라....불안불편그리고삶의의역상싱등등너무부작영이크다</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>빨리좀개발해라.....그것도싸게개발해서. 좀버습해줘라....불안불편그리고삶의의역상싱등등너무부작영이크다</t>
+          <t>역시 영국이 백신은 세계 최고다..</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>역시 영국이 백신은 세계 최고다..</t>
+          <t>영국 마스크도 안쓰고 요즘도 확진자 500 - 800명대라 답없다 생각했는데 이런걸 보니 그나마 안심된다. 백신 테스트 지원자 계속 모집하던데 이건가보다.</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>영국 마스크도 안쓰고 요즘도 확진자 500 - 800명대라 답없다 생각했는데 이런걸 보니 그나마 안심된다. 백신 테스트 지원자 계속 모집하던데 이건가보다.</t>
+          <t>발효잘된 김칫국물로 링겔 맞는게 차라리 효과만점일지도..</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>발효잘된 김칫국물로 링겔 맞는게 차라리 효과만점일지도..</t>
+          <t>우리나라 뭐하냐 세계에서 제일 머리좋은 민족이 왜 머리를 안씀</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>우리나라 뭐하냐 세계에서 제일 머리좋은 민족이 왜 머리를 안씀</t>
+          <t>희망고문 하지마라. 백신은 솔직히 나오기 힘들다. 메르스,사스도 백신없다. 변이가 계속되는데 어찌 만든단 말이냐. 변이속도 맞춰서 미리 개발이라도 하나? 감기도 정복 못했으면서 무슨;;차라리 치료제 개발이 쉽다. 어차피 무증상감염자들은 백신이고 치료제고 나발이고 필요없이 자동셀프치료 되는거고 위험군들에게 유효한 치료제 개발이 훨씬 가능성이 높다. 음모론 따윈 믿지않지만 전세계 인구 줄이기 프로젝트가 맞다면 치료제는 더 늦게 나올거고, 그게 아니면 돈독오른 제약사들에의해 머잖아 나올거다. 담배의 니코틴이 코로나 잡는다며? 뻘소리겠지?</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>백신나오면 비행기타고 영국여행가야지</t>
+          <t>머카노 셀트리온이 젤압서있는데 노벨의학상은 따논 당상임 화이팅 조선</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
-        <is>
-          <t>희망고문 하지마라. 백신은 솔직히 나오기 힘들다. 메르스,사스도 백신없다. 변이가 계속되는데 어찌 만든단 말이냐. 변이속도 맞춰서 미리 개발이라도 하나? 감기도 정복 못했으면서 무슨;;차라리 치료제 개발이 쉽다. 어차피 무증상감염자들은 백신이고 치료제고 나발이고 필요없이 자동셀프치료 되는거고 위험군들에게 유효한 치료제 개발이 훨씬 가능성이 높다. 음모론 따윈 믿지않지만 전세계 인구 줄이기 프로젝트가 맞다면 치료제는 더 늦게 나올거고, 그게 아니면 돈독오른 제약사들에의해 머잖아 나올거다. 담배의 니코틴이 코로나 잡는다며? 뻘소리겠지?</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>머카노 셀트리온이 젤압서있는데 노벨의학상은 따논 당상임 화이팅 조선</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
         <is>
           <t>건강한 사람 80%는 무증상.. 유증상 중 80%는 1~2주 안에 치료없이 완쾌된다..... 백신이 왜 필요한거냐??????</t>
         </is>
